--- a/Documents/Time Allocation Record Spreadsheet.xlsx
+++ b/Documents/Time Allocation Record Spreadsheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RTDPM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15137\Desktop\TDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21625715-7171-41AF-B2D3-49FF21A4182D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10620" activeTab="6"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Time Period 1" sheetId="1" r:id="rId1"/>
@@ -20,12 +21,25 @@
     <sheet name="Time Period 6" sheetId="7" r:id="rId6"/>
     <sheet name="FInal Total" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="67">
   <si>
     <t>#</t>
   </si>
@@ -106,17 +120,167 @@
   </si>
   <si>
     <t>Team Member 6</t>
+  </si>
+  <si>
+    <t>PAUL,JEASON</t>
+  </si>
+  <si>
+    <t>Prasad Geetha,Athul Prasad</t>
+  </si>
+  <si>
+    <t>Ji,Minghao</t>
+  </si>
+  <si>
+    <t>2783136</t>
+  </si>
+  <si>
+    <t>2788125</t>
+  </si>
+  <si>
+    <t>2788786</t>
+  </si>
+  <si>
+    <t>2789738</t>
+  </si>
+  <si>
+    <t>2792263</t>
+  </si>
+  <si>
+    <t>2792443</t>
+  </si>
+  <si>
+    <t>Recorder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Research</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manager</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EE Technician</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CS Technician </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Team Number: 10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cheng,Xu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pan,Xueting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUDARSAN,HARI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weekly meeting record</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Specification research</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Requirements analysis(EE)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Requirements analysis(CS)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meeting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>independent</t>
+  </si>
+  <si>
+    <t>independent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discussion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reporting Period:12/1-26/1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algorithmic Process Planner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manager &amp; Ball Algorithm Technician</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Framework Builder &amp; MATLAB Algorithm Technician </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player Behaviors Algorithm Technician</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recorder &amp; Ball Algorithm Technician</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Workpackage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weekly meeting record &amp; attend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algorithm research</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Research by group and block</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Program construction and implementation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reporting Period:27/1-12/2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -124,8 +288,35 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -137,7 +328,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -464,11 +655,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -534,10 +800,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -548,18 +812,43 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{98AC169D-C6D3-4031-BDE9-ED52C56355D2}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -575,7 +864,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -650,6 +939,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -685,6 +991,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -860,17 +1183,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="33.90625" customWidth="1"/>
@@ -878,12 +1201,1225 @@
     <col min="4" max="12" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21">
+        <v>1</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="45">
+        <v>44938</v>
+      </c>
+      <c r="E14" s="45">
+        <v>44952</v>
+      </c>
+      <c r="F14" s="13">
+        <v>1</v>
+      </c>
+      <c r="G14" s="13">
+        <v>3</v>
+      </c>
+      <c r="H14" s="13">
+        <v>3</v>
+      </c>
+      <c r="I14" s="13">
+        <v>3</v>
+      </c>
+      <c r="J14" s="13">
+        <v>3</v>
+      </c>
+      <c r="K14" s="13"/>
+      <c r="L14" s="25">
+        <f t="shared" ref="L14:L28" si="0">SUM(H14:K14)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22">
+        <v>2</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="45">
+        <v>44938</v>
+      </c>
+      <c r="E15" s="45">
+        <v>44952</v>
+      </c>
+      <c r="F15" s="14">
+        <v>3</v>
+      </c>
+      <c r="G15" s="14">
+        <v>3</v>
+      </c>
+      <c r="H15" s="14">
+        <v>3</v>
+      </c>
+      <c r="I15" s="14">
+        <v>3</v>
+      </c>
+      <c r="J15" s="14">
+        <v>3</v>
+      </c>
+      <c r="K15" s="14">
+        <v>3</v>
+      </c>
+      <c r="L15" s="26">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="22">
+        <v>3</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="45">
+        <v>44938</v>
+      </c>
+      <c r="E16" s="45">
+        <v>44952</v>
+      </c>
+      <c r="F16" s="14">
+        <v>1</v>
+      </c>
+      <c r="G16" s="14">
+        <v>8</v>
+      </c>
+      <c r="H16" s="14">
+        <v>8</v>
+      </c>
+      <c r="I16" s="14">
+        <v>8</v>
+      </c>
+      <c r="J16" s="14">
+        <v>8</v>
+      </c>
+      <c r="K16" s="14"/>
+      <c r="L16" s="26">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
+        <v>4</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="45">
+        <v>44938</v>
+      </c>
+      <c r="E17" s="45">
+        <v>44952</v>
+      </c>
+      <c r="F17" s="14">
+        <v>1</v>
+      </c>
+      <c r="G17" s="14">
+        <v>8</v>
+      </c>
+      <c r="H17" s="14">
+        <v>8</v>
+      </c>
+      <c r="I17" s="14">
+        <v>8</v>
+      </c>
+      <c r="J17" s="14">
+        <v>8</v>
+      </c>
+      <c r="K17" s="14"/>
+      <c r="L17" s="26">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="22">
+        <v>5</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="46">
+        <v>44938</v>
+      </c>
+      <c r="E18" s="46">
+        <v>44952</v>
+      </c>
+      <c r="F18" s="14">
+        <v>6</v>
+      </c>
+      <c r="G18" s="14">
+        <v>6</v>
+      </c>
+      <c r="H18" s="14">
+        <v>6</v>
+      </c>
+      <c r="I18" s="14">
+        <v>6</v>
+      </c>
+      <c r="J18" s="14">
+        <v>6</v>
+      </c>
+      <c r="K18" s="14">
+        <v>6</v>
+      </c>
+      <c r="L18" s="26">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
+        <v>6</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="46">
+        <v>44938</v>
+      </c>
+      <c r="E19" s="46">
+        <v>44952</v>
+      </c>
+      <c r="F19" s="14">
+        <v>2</v>
+      </c>
+      <c r="G19" s="14">
+        <v>2</v>
+      </c>
+      <c r="H19" s="14">
+        <v>2</v>
+      </c>
+      <c r="I19" s="14">
+        <v>2</v>
+      </c>
+      <c r="J19" s="14">
+        <v>2</v>
+      </c>
+      <c r="K19" s="14">
+        <v>2</v>
+      </c>
+      <c r="L19" s="26">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="22">
+        <v>7</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="22">
+        <v>8</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="22">
+        <v>9</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="22">
+        <v>10</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="22">
+        <v>11</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
+        <v>12</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="22">
+        <v>13</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="22">
+        <v>14</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="23">
+        <v>15</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="2">
+        <f>SUM(F14:F28)</f>
+        <v>14</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" ref="G29:K29" si="1">SUM(G14:G28)</f>
+        <v>30</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="K29" s="2">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="L29" s="24">
+        <f>SUM(L14:L28)</f>
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="76" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="33.90625" customWidth="1"/>
+    <col min="3" max="3" width="29.54296875" customWidth="1"/>
+    <col min="4" max="12" width="12.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21">
+        <v>1</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="45">
+        <v>44953</v>
+      </c>
+      <c r="E14" s="45">
+        <v>44969</v>
+      </c>
+      <c r="F14" s="13">
+        <v>5</v>
+      </c>
+      <c r="G14" s="13">
+        <v>5</v>
+      </c>
+      <c r="H14" s="13">
+        <v>5</v>
+      </c>
+      <c r="I14" s="13">
+        <v>5</v>
+      </c>
+      <c r="J14" s="13">
+        <v>5</v>
+      </c>
+      <c r="K14" s="13">
+        <v>5</v>
+      </c>
+      <c r="L14" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22">
+        <v>2</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="45">
+        <v>44953</v>
+      </c>
+      <c r="E15" s="45">
+        <v>44969</v>
+      </c>
+      <c r="F15" s="14">
+        <v>5</v>
+      </c>
+      <c r="G15" s="14">
+        <v>5</v>
+      </c>
+      <c r="H15" s="14">
+        <v>5</v>
+      </c>
+      <c r="I15" s="14">
+        <v>5</v>
+      </c>
+      <c r="J15" s="14">
+        <v>5</v>
+      </c>
+      <c r="K15" s="14">
+        <v>5</v>
+      </c>
+      <c r="L15" s="26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="22">
+        <v>3</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="45">
+        <v>44953</v>
+      </c>
+      <c r="E16" s="45">
+        <v>44969</v>
+      </c>
+      <c r="F16" s="14">
+        <v>5</v>
+      </c>
+      <c r="G16" s="14">
+        <v>5</v>
+      </c>
+      <c r="H16" s="14">
+        <v>5</v>
+      </c>
+      <c r="I16" s="14">
+        <v>5</v>
+      </c>
+      <c r="J16" s="14">
+        <v>5</v>
+      </c>
+      <c r="K16" s="14">
+        <v>5</v>
+      </c>
+      <c r="L16" s="26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22">
+        <v>4</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="45">
+        <v>44953</v>
+      </c>
+      <c r="E17" s="45">
+        <v>44969</v>
+      </c>
+      <c r="F17" s="14">
+        <v>6</v>
+      </c>
+      <c r="G17" s="14">
+        <v>6</v>
+      </c>
+      <c r="H17" s="14">
+        <v>6</v>
+      </c>
+      <c r="I17" s="14">
+        <v>6</v>
+      </c>
+      <c r="J17" s="14">
+        <v>6</v>
+      </c>
+      <c r="K17" s="14">
+        <v>6</v>
+      </c>
+      <c r="L17" s="26">
+        <f t="shared" ref="L17:L28" si="0">SUM(H17:K17)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="22">
+        <v>5</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="47">
+        <v>44953</v>
+      </c>
+      <c r="E18" s="47">
+        <v>44969</v>
+      </c>
+      <c r="F18" s="14">
+        <v>6</v>
+      </c>
+      <c r="G18" s="14">
+        <v>6</v>
+      </c>
+      <c r="H18" s="14">
+        <v>6</v>
+      </c>
+      <c r="I18" s="14">
+        <v>6</v>
+      </c>
+      <c r="J18" s="14">
+        <v>6</v>
+      </c>
+      <c r="K18" s="14">
+        <v>6</v>
+      </c>
+      <c r="L18" s="26">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
+        <v>6</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="47">
+        <v>44953</v>
+      </c>
+      <c r="E19" s="47">
+        <v>44969</v>
+      </c>
+      <c r="F19" s="14">
+        <v>3</v>
+      </c>
+      <c r="G19" s="14">
+        <v>3</v>
+      </c>
+      <c r="H19" s="14">
+        <v>3</v>
+      </c>
+      <c r="I19" s="14">
+        <v>3</v>
+      </c>
+      <c r="J19" s="14">
+        <v>3</v>
+      </c>
+      <c r="K19" s="14">
+        <v>3</v>
+      </c>
+      <c r="L19" s="26">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="22">
+        <v>7</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="22">
+        <v>8</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="22">
+        <v>9</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="22">
+        <v>10</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="22">
+        <v>11</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
+        <v>12</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="22">
+        <v>13</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="22">
+        <v>14</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="23">
+        <v>15</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="2">
+        <f>SUM(F14:F28)</f>
+        <v>30</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" ref="G29:K29" si="1">SUM(G14:G28)</f>
+        <v>30</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="K29" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="L29" s="24">
+        <f>SUM(L14:L28)</f>
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="33.90625" customWidth="1"/>
+    <col min="3" max="3" width="29.54296875" customWidth="1"/>
+    <col min="4" max="12" width="12.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>16</v>
       </c>
@@ -891,8 +2427,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
@@ -903,7 +2439,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
@@ -911,7 +2447,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
@@ -919,7 +2455,7 @@
       <c r="D7" s="29"/>
       <c r="E7" s="30"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
@@ -927,15 +2463,15 @@
       <c r="D8" s="7"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B9" s="31" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>19</v>
       </c>
@@ -943,8 +2479,8 @@
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
     </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
@@ -982,7 +2518,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>1</v>
       </c>
@@ -1001,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>2</v>
       </c>
@@ -1020,7 +2556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>3</v>
       </c>
@@ -1039,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>4</v>
       </c>
@@ -1058,7 +2594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>5</v>
       </c>
@@ -1077,7 +2613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>6</v>
       </c>
@@ -1096,7 +2632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <v>7</v>
       </c>
@@ -1115,7 +2651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <v>8</v>
       </c>
@@ -1134,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>9</v>
       </c>
@@ -1153,7 +2689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>10</v>
       </c>
@@ -1172,7 +2708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>11</v>
       </c>
@@ -1191,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>12</v>
       </c>
@@ -1210,7 +2746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>13</v>
       </c>
@@ -1229,7 +2765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>14</v>
       </c>
@@ -1248,7 +2784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
         <v>15</v>
       </c>
@@ -1267,7 +2803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="12" t="s">
         <v>8</v>
       </c>
@@ -1303,20 +2839,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="76" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="33.90625" customWidth="1"/>
@@ -1324,12 +2860,12 @@
     <col min="4" max="12" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>16</v>
       </c>
@@ -1337,8 +2873,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1349,7 +2885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1357,7 +2893,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
@@ -1365,7 +2901,7 @@
       <c r="D7" s="29"/>
       <c r="E7" s="30"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
@@ -1373,15 +2909,15 @@
       <c r="D8" s="7"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B9" s="31" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>19</v>
       </c>
@@ -1389,8 +2925,8 @@
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
     </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
@@ -1428,7 +2964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>1</v>
       </c>
@@ -1447,7 +2983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>2</v>
       </c>
@@ -1466,7 +3002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>3</v>
       </c>
@@ -1485,7 +3021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>4</v>
       </c>
@@ -1504,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>5</v>
       </c>
@@ -1523,7 +3059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>6</v>
       </c>
@@ -1542,7 +3078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <v>7</v>
       </c>
@@ -1561,7 +3097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <v>8</v>
       </c>
@@ -1580,7 +3116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>9</v>
       </c>
@@ -1599,7 +3135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>10</v>
       </c>
@@ -1618,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>11</v>
       </c>
@@ -1637,7 +3173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>12</v>
       </c>
@@ -1656,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>13</v>
       </c>
@@ -1675,7 +3211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>14</v>
       </c>
@@ -1694,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
         <v>15</v>
       </c>
@@ -1713,7 +3249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="12" t="s">
         <v>8</v>
       </c>
@@ -1749,20 +3285,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="33.90625" customWidth="1"/>
@@ -1770,12 +3306,12 @@
     <col min="4" max="12" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>16</v>
       </c>
@@ -1783,8 +3319,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1795,7 +3331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1803,7 +3339,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
@@ -1811,7 +3347,7 @@
       <c r="D7" s="29"/>
       <c r="E7" s="30"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
@@ -1819,15 +3355,15 @@
       <c r="D8" s="7"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B9" s="31" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>19</v>
       </c>
@@ -1835,8 +3371,8 @@
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
     </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
@@ -1874,7 +3410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>1</v>
       </c>
@@ -1893,7 +3429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>2</v>
       </c>
@@ -1912,7 +3448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>3</v>
       </c>
@@ -1931,7 +3467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>4</v>
       </c>
@@ -1950,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>5</v>
       </c>
@@ -1969,7 +3505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>6</v>
       </c>
@@ -1988,7 +3524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <v>7</v>
       </c>
@@ -2007,7 +3543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <v>8</v>
       </c>
@@ -2026,7 +3562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>9</v>
       </c>
@@ -2045,7 +3581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>10</v>
       </c>
@@ -2064,7 +3600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>11</v>
       </c>
@@ -2083,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>12</v>
       </c>
@@ -2102,7 +3638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>13</v>
       </c>
@@ -2121,7 +3657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>14</v>
       </c>
@@ -2140,7 +3676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
         <v>15</v>
       </c>
@@ -2159,7 +3695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="12" t="s">
         <v>8</v>
       </c>
@@ -2195,19 +3731,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="33.90625" customWidth="1"/>
@@ -2215,12 +3752,12 @@
     <col min="4" max="12" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>16</v>
       </c>
@@ -2228,8 +3765,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
@@ -2240,7 +3777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
@@ -2248,7 +3785,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
@@ -2256,7 +3793,7 @@
       <c r="D7" s="29"/>
       <c r="E7" s="30"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
@@ -2264,15 +3801,15 @@
       <c r="D8" s="7"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B9" s="31" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>19</v>
       </c>
@@ -2280,8 +3817,8 @@
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
     </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
@@ -2319,7 +3856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>1</v>
       </c>
@@ -2338,7 +3875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>2</v>
       </c>
@@ -2357,7 +3894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>3</v>
       </c>
@@ -2376,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>4</v>
       </c>
@@ -2395,7 +3932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>5</v>
       </c>
@@ -2414,7 +3951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>6</v>
       </c>
@@ -2433,7 +3970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <v>7</v>
       </c>
@@ -2452,7 +3989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <v>8</v>
       </c>
@@ -2471,7 +4008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>9</v>
       </c>
@@ -2490,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>10</v>
       </c>
@@ -2509,7 +4046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>11</v>
       </c>
@@ -2528,7 +4065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>12</v>
       </c>
@@ -2547,7 +4084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>13</v>
       </c>
@@ -2566,7 +4103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>14</v>
       </c>
@@ -2585,7 +4122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
         <v>15</v>
       </c>
@@ -2604,7 +4141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="12" t="s">
         <v>8</v>
       </c>
@@ -2640,909 +4177,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="33.90625" customWidth="1"/>
-    <col min="3" max="3" width="29.54296875" customWidth="1"/>
-    <col min="4" max="12" width="12.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B1" s="28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B9" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="21">
-        <v>1</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="25">
-        <f t="shared" ref="L14:L28" si="0">SUM(H14:K14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="22">
-        <v>2</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="22">
-        <v>3</v>
-      </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="22">
-        <v>4</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="22">
-        <v>5</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="22">
-        <v>6</v>
-      </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="22">
-        <v>7</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="22">
-        <v>8</v>
-      </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="22">
-        <v>9</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="22">
-        <v>10</v>
-      </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="22">
-        <v>11</v>
-      </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="22">
-        <v>12</v>
-      </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="22">
-        <v>13</v>
-      </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="22">
-        <v>14</v>
-      </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="23">
-        <v>15</v>
-      </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="2">
-        <f>SUM(F14:F28)</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="2">
-        <f t="shared" ref="G29:K29" si="1">SUM(G14:G28)</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="24">
-        <f>SUM(L14:L28)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="33.90625" customWidth="1"/>
-    <col min="3" max="3" width="29.54296875" customWidth="1"/>
-    <col min="4" max="12" width="12.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B1" s="28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B9" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="21">
-        <v>1</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="25">
-        <f t="shared" ref="L14:L28" si="0">SUM(H14:K14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="22">
-        <v>2</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="22">
-        <v>3</v>
-      </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="22">
-        <v>4</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="22">
-        <v>5</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="22">
-        <v>6</v>
-      </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="22">
-        <v>7</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="22">
-        <v>8</v>
-      </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="22">
-        <v>9</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="22">
-        <v>10</v>
-      </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="22">
-        <v>11</v>
-      </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="22">
-        <v>12</v>
-      </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="22">
-        <v>13</v>
-      </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="22">
-        <v>14</v>
-      </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="23">
-        <v>15</v>
-      </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="2">
-        <f>SUM(F14:F28)</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="2">
-        <f t="shared" ref="G29:K29" si="1">SUM(G14:G28)</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="24">
-        <f>SUM(L14:L28)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="25.54296875" customWidth="1"/>
@@ -3552,18 +4200,18 @@
     <col min="12" max="12" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
@@ -3574,59 +4222,93 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B6" s="32" t="s">
+    <row r="6" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B7" s="33" t="s">
+      <c r="C6" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B8" s="33" t="s">
+      <c r="C7" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B9" s="33" t="s">
+      <c r="C8" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B10" s="34" t="s">
+      <c r="C9" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="35" t="s">
+      <c r="C10" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-    </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="40"/>
+      <c r="C11" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="37"/>
       <c r="D14" s="2" t="s">
         <v>24</v>
       </c>
@@ -3652,82 +4334,82 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="39"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
+    <row r="15" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="25">
         <v>1</v>
       </c>
       <c r="E15" s="25">
         <f>'Time Period 1'!F29</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F15" s="25">
         <f>'Time Period 1'!G29</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G15" s="25">
         <f>'Time Period 1'!H29</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H15" s="25">
         <f>'Time Period 1'!I29</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I15" s="25">
         <f>'Time Period 1'!J29</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J15" s="25">
         <f>'Time Period 1'!K29</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K15" s="25">
         <f>SUM(E15:J15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="39"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="26">
         <v>2</v>
       </c>
       <c r="E16" s="26">
         <f>'Time Period 2'!F29</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F16" s="26">
         <f>'Time Period 2'!G29</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G16" s="26">
         <f>'Time Period 2'!H29</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H16" s="26">
         <f>'Time Period 2'!I29</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I16" s="26">
         <f>'Time Period 2'!J29</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J16" s="26">
         <f>'Time Period 2'!K29</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K16" s="25">
         <f t="shared" ref="K16:K20" si="0">SUM(E16:J16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="39"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="26">
         <v>3</v>
       </c>
@@ -3760,10 +4442,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="39"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
+    <row r="18" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="26">
         <v>4</v>
       </c>
@@ -3796,10 +4478,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="39"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
+    <row r="19" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
       <c r="D19" s="26">
         <v>5</v>
       </c>
@@ -3832,10 +4514,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="39"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="26">
         <v>6</v>
       </c>
@@ -3868,10 +4550,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="39"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
+    <row r="21" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
@@ -3881,41 +4563,43 @@
       <c r="J21" s="27"/>
       <c r="K21" s="27"/>
     </row>
-    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="2">
-        <f t="shared" ref="E22:K22" si="1">SUM(E15:E21)</f>
-        <v>0</v>
+        <f t="shared" ref="E22" si="1">SUM(E15:E21)</f>
+        <v>44</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" ref="F22" si="2">SUM(F15:F21)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" ref="G22" si="3">SUM(G15:G21)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" ref="H22" si="4">SUM(H15:H21)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I22" s="2">
         <f t="shared" ref="I22" si="5">SUM(I15:I21)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" ref="J22" si="6">SUM(J15:J21)</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="K22" s="24">
         <f>SUM(K15:K21)</f>
-        <v>0</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>